--- a/planilhas/faltas_filtradas.xlsx
+++ b/planilhas/faltas_filtradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinamica\Documents\GitHub\easylog\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC65E3-AF8E-42FA-8D79-5A52EF618876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25ACF9-7461-4B9F-A75E-F05FF91C9768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Aluno</t>
   </si>
@@ -167,16 +167,13 @@
   </si>
   <si>
     <t>(92)99419-8133</t>
-  </si>
-  <si>
-    <t>Justificativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +185,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,13 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,31 +529,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -575,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -583,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -591,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -599,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -607,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -615,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -623,7 +605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -631,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -639,7 +621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -647,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -655,7 +637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -663,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -671,7 +653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -679,7 +661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
